--- a/URL一覧表_大規模言語モデル（LLM）.xlsx
+++ b/URL一覧表_大規模言語モデル（LLM）.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>サマースクール 2023　大規模言語モデル</t>
   </si>
@@ -140,25 +140,34 @@
     <t>第5回 9/19</t>
   </si>
   <si>
-    <t>未公開</t>
-  </si>
-  <si>
-    <t>パスコード</t>
+    <t>https://us06web.zoom.us/rec/share/qPI7R4cmrqfiaLe98OEUvTKvFex8bLLR1sto2SY5ZaN1RondnvOI2euPAoHq4ZyR.pRLi9c12WVB5AVaf</t>
+  </si>
+  <si>
+    <t>2$HfQ3L&amp;</t>
   </si>
   <si>
     <t>第6回 9/22</t>
   </si>
   <si>
+    <t xml:space="preserve">https://us06web.zoom.us/rec/share/06Fg4T7QWxdO-7Dg1JYuB3PxSsK3VnPh5Kp_uvb9ksUl6BpyG_rV-jKnw-lG7P3_.dZjahD3ONKw3We8S </t>
+  </si>
+  <si>
+    <t>S^8@4NX1</t>
+  </si>
+  <si>
     <t>第7回 9/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://us06web.zoom.us/rec/share/gKnNqskFSHMU31vbuPJq9AIfcou70PEpRz5mABWvuPY3aDJoGvb5bSYgVcYoi6WW.8XdJ-4cCcARRrosh </t>
+  </si>
+  <si>
+    <t>%BaQxi3D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-  </numFmts>
   <fonts count="17">
     <font>
       <sz val="10.0"/>
@@ -344,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -405,9 +414,6 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="14" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -901,12 +907,12 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="19" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="20" t="s">
         <v>42</v>
       </c>
     </row>
@@ -916,28 +922,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" s="20" t="s">
-        <v>41</v>
+      <c r="B51" s="19" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="52">
-      <c r="B52" s="23" t="s">
-        <v>42</v>
+      <c r="B52" s="20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54">
-      <c r="B54" s="20" t="s">
-        <v>41</v>
+      <c r="B54" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="55">
-      <c r="B55" s="23" t="s">
-        <v>42</v>
+      <c r="B55" s="20" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="56">
@@ -1007,7 +1013,10 @@
     <hyperlink r:id="rId10" ref="B39"/>
     <hyperlink r:id="rId11" ref="B42"/>
     <hyperlink r:id="rId12" ref="B45"/>
+    <hyperlink r:id="rId13" ref="B48"/>
+    <hyperlink r:id="rId14" ref="B51"/>
+    <hyperlink r:id="rId15" ref="B54"/>
   </hyperlinks>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>